--- a/Script/Danny Script/Diccionario de datos.xlsx
+++ b/Script/Danny Script/Diccionario de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Script\Danny Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A6288D-2476-4B35-9648-EEEBD746E10B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155110CE-E7CF-4D6B-95A5-965C4DF30706}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="5676" activeTab="1" xr2:uid="{AEA42C2C-DE09-4291-BB71-D10C44CDD0F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="5676" activeTab="4" xr2:uid="{AEA42C2C-DE09-4291-BB71-D10C44CDD0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -641,9 +641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,10 +653,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -671,9 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,7 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,259 +1014,259 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440290B-5980-4681-9BBC-4884532545B2}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,285 +1303,285 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>19</v>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D06344-8D27-406A-AAC5-DCD58DB16352}">
   <dimension ref="B2:F175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,2408 +1604,2408 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="6" t="s">
+      <c r="E49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="6" t="s">
+      <c r="E50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="E51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="E52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="E53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="E57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="6" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="6" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="E60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="6" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="6" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="E62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="6" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="E63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="6" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="E64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="E65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="6" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="E66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="E67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="6" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="6" t="s">
+      <c r="E68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="6" t="s">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="E69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="6" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="E70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="6" t="s">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="6" t="s">
+      <c r="E71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="6" t="s">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="E72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="6" t="s">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="6" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="6" t="s">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="E75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="6" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="E77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="6"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="E79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="6" t="s">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="E80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="6" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="E81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="6" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="E82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="6" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="E83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="6" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="E84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="6" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="E85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="6" t="s">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="6" t="s">
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="E87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="6" t="s">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="6" t="s">
+      <c r="E88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="6" t="s">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="E90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="6" t="s">
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="E91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="6" t="s">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="E92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="6" t="s">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="6" t="s">
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="6" t="s">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="6" t="s">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="6" t="s">
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="6" t="s">
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="E97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="6" t="s">
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="6" t="s">
+      <c r="E98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="6" t="s">
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="E99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="6" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="E100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="E101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="6" t="s">
+      <c r="E103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="6" t="s">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="E104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="6" t="s">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="6" t="s">
+      <c r="E105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="6" t="s">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="E106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="6" t="s">
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="6" t="s">
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="E108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="6" t="s">
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="6" t="s">
+      <c r="E109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="6" t="s">
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="6" t="s">
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="6" t="s">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="E112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="6" t="s">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="6" t="s">
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="E114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="6" t="s">
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="6" t="s">
+      <c r="E115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="E116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="6" t="s">
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="6" t="s">
+      <c r="E117" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="6" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="6" t="s">
+      <c r="E118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="6" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="6" t="s">
+      <c r="E119" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="6" t="s">
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="E120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="6" t="s">
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="E121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="6" t="s">
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="6" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="E123" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="6" t="s">
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="E124" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="6" t="s">
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="6" t="s">
+      <c r="E125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="6" t="s">
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="6" t="s">
+      <c r="E126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="6" t="s">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="E127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="6" t="s">
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="6" t="s">
+      <c r="E128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="6" t="s">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="E129" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="6" t="s">
+      <c r="E130" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" s="6" t="s">
+      <c r="E132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="6" t="s">
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" s="6" t="s">
+      <c r="E133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="6" t="s">
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="6" t="s">
+      <c r="E134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="6" t="s">
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="E135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="6" t="s">
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="E136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="6" t="s">
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="E137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="6" t="s">
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="E138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="6" t="s">
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="E139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="6" t="s">
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="6" t="s">
+      <c r="E140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="6" t="s">
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="E141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="6" t="s">
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="E142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="6" t="s">
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="E143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="6" t="s">
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="6" t="s">
+      <c r="E144" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="6" t="s">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="6" t="s">
+      <c r="E145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="6" t="s">
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="6" t="s">
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="6" t="s">
+      <c r="E148" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="6" t="s">
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="E149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="6" t="s">
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" s="6" t="s">
+      <c r="E150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="6" t="s">
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="6" t="s">
+      <c r="E151" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="6" t="s">
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="6" t="s">
+      <c r="E152" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="6" t="s">
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" s="6" t="s">
+      <c r="E153" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="6" t="s">
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="6" t="s">
+      <c r="E154" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="6" t="s">
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="6" t="s">
+      <c r="E155" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="6" t="s">
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F156" s="6" t="s">
+      <c r="E156" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="6" t="s">
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="6" t="s">
+      <c r="E157" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="6" t="s">
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="E158" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="6" t="s">
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" s="6" t="s">
+      <c r="E159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" s="6" t="s">
+      <c r="E160" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="E162" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="6" t="s">
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="E163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="6" t="s">
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E164" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="E164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="6" t="s">
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" s="6" t="s">
+      <c r="E165" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="6" t="s">
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="E166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="6" t="s">
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="E167" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="6" t="s">
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="E168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="6" t="s">
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="6" t="s">
+      <c r="E169" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="6" t="s">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="6" t="s">
+      <c r="E170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="6" t="s">
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="E171" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="6" t="s">
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="E172" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="6" t="s">
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F173" s="6" t="s">
+      <c r="E173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="6" t="s">
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" s="6" t="s">
+      <c r="E174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="6" t="s">
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F175" s="6" t="s">
+      <c r="E175" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="C67:C76"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C89:C100"/>
+    <mergeCell ref="B103:B115"/>
+    <mergeCell ref="C103:C115"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="C116:C129"/>
     <mergeCell ref="B132:B146"/>
     <mergeCell ref="C132:C146"/>
     <mergeCell ref="B147:B159"/>
     <mergeCell ref="C147:C159"/>
     <mergeCell ref="B162:B175"/>
     <mergeCell ref="C162:C175"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C89:C100"/>
-    <mergeCell ref="B103:B115"/>
-    <mergeCell ref="C103:C115"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="C67:C76"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B14:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4029,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE1C14E-0A40-46F2-ACBA-F474BE9142F7}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4040,73 +4040,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>162</v>
       </c>
     </row>

--- a/Script/Danny Script/Diccionario de datos.xlsx
+++ b/Script/Danny Script/Diccionario de datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Script\Danny Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\2018 - I SEMESTRE\Bases de Datos II\Proyecto II\Esteban Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5824F95-6A1E-4FE4-BB4E-C23636DEAF84}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8CE6D103-9FF0-4503-A368-F7977F3AE0A4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="5676" activeTab="1" xr2:uid="{AEA42C2C-DE09-4291-BB71-D10C44CDD0F2}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="11124" windowHeight="5676" firstSheet="1" activeTab="2" xr2:uid="{AEA42C2C-DE09-4291-BB71-D10C44CDD0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Function" sheetId="4" r:id="rId4"/>
     <sheet name="Sequence" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="277">
   <si>
     <t>Entidad</t>
   </si>
@@ -524,13 +524,349 @@
   </si>
   <si>
     <t>display_details</t>
+  </si>
+  <si>
+    <t>Campus_obj</t>
+  </si>
+  <si>
+    <t>idCampus</t>
+  </si>
+  <si>
+    <t>nameCampus</t>
+  </si>
+  <si>
+    <t>locationCampus</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Office_obj</t>
+  </si>
+  <si>
+    <t>idOffice</t>
+  </si>
+  <si>
+    <t>buildingCode</t>
+  </si>
+  <si>
+    <t>officeNumber</t>
+  </si>
+  <si>
+    <t>officePhone</t>
+  </si>
+  <si>
+    <t>Building_obj</t>
+  </si>
+  <si>
+    <t>buildingName</t>
+  </si>
+  <si>
+    <t>buildingLocation</t>
+  </si>
+  <si>
+    <t>buildingLevel</t>
+  </si>
+  <si>
+    <t>idFaculty</t>
+  </si>
+  <si>
+    <t>RC_Unit_obj</t>
+  </si>
+  <si>
+    <t>rc_unit</t>
+  </si>
+  <si>
+    <t>RC_Unit_array</t>
+  </si>
+  <si>
+    <t>VARRAY</t>
+  </si>
+  <si>
+    <t>Research_Center_obj</t>
+  </si>
+  <si>
+    <t>idResearchCenter</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>List_RC</t>
+  </si>
+  <si>
+    <t>SchoolProf_obj</t>
+  </si>
+  <si>
+    <t>schoolProfName</t>
+  </si>
+  <si>
+    <t>schoolProfPhone</t>
+  </si>
+  <si>
+    <t>SchoolProf_array</t>
+  </si>
+  <si>
+    <t>School_obj</t>
+  </si>
+  <si>
+    <t>idSchool</t>
+  </si>
+  <si>
+    <t>prof_array</t>
+  </si>
+  <si>
+    <t>List_School</t>
+  </si>
+  <si>
+    <t>DeptProf_obj</t>
+  </si>
+  <si>
+    <t>deptProfName</t>
+  </si>
+  <si>
+    <t>deptProfPhone</t>
+  </si>
+  <si>
+    <t>DeptProf_array</t>
+  </si>
+  <si>
+    <t>Department_obj</t>
+  </si>
+  <si>
+    <t>idDepartment</t>
+  </si>
+  <si>
+    <t>List_Department</t>
+  </si>
+  <si>
+    <t>Faculty_obj</t>
+  </si>
+  <si>
+    <t>dean</t>
+  </si>
+  <si>
+    <t>department_list</t>
+  </si>
+  <si>
+    <t>school_list</t>
+  </si>
+  <si>
+    <t>rc_list</t>
+  </si>
+  <si>
+    <t>Campus_table</t>
+  </si>
+  <si>
+    <t>Office_table</t>
+  </si>
+  <si>
+    <t>Building_table</t>
+  </si>
+  <si>
+    <t>Faculty_table</t>
+  </si>
+  <si>
+    <t>Department_table</t>
+  </si>
+  <si>
+    <t>School_table</t>
+  </si>
+  <si>
+    <t>Research_Center_table</t>
+  </si>
+  <si>
+    <t>seqCampus</t>
+  </si>
+  <si>
+    <t>seqFaculty</t>
+  </si>
+  <si>
+    <t>seqSchool</t>
+  </si>
+  <si>
+    <t>seqDepartment</t>
+  </si>
+  <si>
+    <t>seqResearchCenter</t>
+  </si>
+  <si>
+    <t>seqBuilding</t>
+  </si>
+  <si>
+    <t>seqOffice</t>
+  </si>
+  <si>
+    <t>Secuencia de Campus</t>
+  </si>
+  <si>
+    <t>Secuencia de Faculty</t>
+  </si>
+  <si>
+    <t>Secuencia de School</t>
+  </si>
+  <si>
+    <t>Secuencia de Department</t>
+  </si>
+  <si>
+    <t>Secuencia de Building</t>
+  </si>
+  <si>
+    <t>Secuencia de Office</t>
+  </si>
+  <si>
+    <t>Secuencia de Research Center</t>
+  </si>
+  <si>
+    <t>insertCampus</t>
+  </si>
+  <si>
+    <t>Procedimiento que inserta un Campus</t>
+  </si>
+  <si>
+    <t>pName</t>
+  </si>
+  <si>
+    <t>pLocation</t>
+  </si>
+  <si>
+    <t>pFax</t>
+  </si>
+  <si>
+    <t>pHead</t>
+  </si>
+  <si>
+    <t>updateCampus</t>
+  </si>
+  <si>
+    <t>Procedimiento que actualiza un Campus</t>
+  </si>
+  <si>
+    <t>pID</t>
+  </si>
+  <si>
+    <t>deleteCampus</t>
+  </si>
+  <si>
+    <t>Procedimiento que elimina un Campus</t>
+  </si>
+  <si>
+    <t>insertFaculty</t>
+  </si>
+  <si>
+    <t>pFacultyName</t>
+  </si>
+  <si>
+    <t>pFacultyDean</t>
+  </si>
+  <si>
+    <t>updateFaculty</t>
+  </si>
+  <si>
+    <t>pFacultyID</t>
+  </si>
+  <si>
+    <t>pDean</t>
+  </si>
+  <si>
+    <t>deleteFaculty</t>
+  </si>
+  <si>
+    <t>insertDepartment</t>
+  </si>
+  <si>
+    <t>pFaculty</t>
+  </si>
+  <si>
+    <t>pDeptProf</t>
+  </si>
+  <si>
+    <t>updateDepartment</t>
+  </si>
+  <si>
+    <t>pDeptID</t>
+  </si>
+  <si>
+    <t>deleteDepartment</t>
+  </si>
+  <si>
+    <t>insertSchool</t>
+  </si>
+  <si>
+    <t>pSchoolProf</t>
+  </si>
+  <si>
+    <t>updateSchool</t>
+  </si>
+  <si>
+    <t>pSchoolID</t>
+  </si>
+  <si>
+    <t>deleteSchool</t>
+  </si>
+  <si>
+    <t>insertRC</t>
+  </si>
+  <si>
+    <t>pUnit</t>
+  </si>
+  <si>
+    <t>updateRC</t>
+  </si>
+  <si>
+    <t>pRCID</t>
+  </si>
+  <si>
+    <t>deleteRC</t>
+  </si>
+  <si>
+    <t>Procedimiento que inserta una Facultad</t>
+  </si>
+  <si>
+    <t>Procedimiento que actualiza una Facultad</t>
+  </si>
+  <si>
+    <t>Procedimiento que elimina una Facultad</t>
+  </si>
+  <si>
+    <t>Procedimiento que inserta un Departamento</t>
+  </si>
+  <si>
+    <t>Procedimiento que actualiza un Departamento</t>
+  </si>
+  <si>
+    <t>Procedmiento que elimina un Departamento</t>
+  </si>
+  <si>
+    <t>Procedimiento que inserta una Escuela</t>
+  </si>
+  <si>
+    <t>Procedmiento que actualiza una Escuela</t>
+  </si>
+  <si>
+    <t>Procedimeinto que elimina una Escuela</t>
+  </si>
+  <si>
+    <t>Procedimiento que inserta un Centro de Investigacion.</t>
+  </si>
+  <si>
+    <t>Procedimiento que actualiza un Centro de Investigacion</t>
+  </si>
+  <si>
+    <t>Procedimeinto que elimina un Centro de Investigacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +899,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -638,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,9 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,29 +1004,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,276 +1379,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0D1A74-FF67-40FA-854F-8E97DD3EB12D}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1293,33 +1788,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440290B-5980-4681-9BBC-4884532545B2}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
@@ -1331,210 +1826,210 @@
       <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1542,71 +2037,576 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3"/>
     </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="15"/>
+      <c r="C51" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="15"/>
+      <c r="C52" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="15"/>
+      <c r="C59" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="15"/>
+      <c r="C60" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="16"/>
+      <c r="C61" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="16"/>
+      <c r="C64" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="15"/>
+      <c r="C67" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="15"/>
+      <c r="C68" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="16"/>
+      <c r="C69" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="15"/>
+      <c r="C72" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="15"/>
+      <c r="C73" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="15"/>
+      <c r="C74" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="15"/>
+      <c r="C75" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="16"/>
+      <c r="C76" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B27"/>
@@ -1618,33 +2618,35 @@
     <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D06344-8D27-406A-AAC5-DCD58DB16352}">
-  <dimension ref="B2:F175"/>
+  <dimension ref="B2:F225"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116:C129"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224:C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1659,2376 +2661,3094 @@
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="3" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="3" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="3" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="3" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="3" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="3" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="3" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="3" t="s">
+      <c r="B54" s="30"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
+      <c r="E54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B55" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="E55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B56" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="3" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="3" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="3" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="E60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="3" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="3" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="3" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="3" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="3" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="3" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="3" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="3" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="3" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="E70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="3" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="E71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="3" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="3" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="3" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="3" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="3" t="s">
+      <c r="B76" s="30"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+      <c r="E76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B77" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
+      <c r="E77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B78" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="3" t="s">
+      <c r="B80" s="29"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="3" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="3" t="s">
+      <c r="B83" s="29"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="3" t="s">
+      <c r="B84" s="29"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="3" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="3" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="3" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="3" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="3" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="3" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="3" t="s">
+      <c r="B92" s="29"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="3" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="3" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="3" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="E95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="3" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="E96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="3" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="3" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="3" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="3" t="s">
+      <c r="E99" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="3" t="s">
+      <c r="B100" s="30"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="3" t="s">
+      <c r="E100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B101" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="3" t="s">
+      <c r="E101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B102" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="3" t="s">
+      <c r="B104" s="29"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="3" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="3" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="3" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="3" t="s">
+      <c r="B108" s="29"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="3" t="s">
+      <c r="B109" s="29"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="3" t="s">
+      <c r="B110" s="29"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="3" t="s">
+      <c r="B111" s="29"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="3" t="s">
+      <c r="B112" s="29"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F112" s="3" t="s">
+      <c r="E112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="3" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="3" t="s">
+      <c r="B114" s="29"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="3" t="s">
+      <c r="B115" s="30"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="E116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="3" t="s">
+      <c r="B117" s="29"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="E117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="3" t="s">
+      <c r="B118" s="29"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="3" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="E119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="3" t="s">
+      <c r="B120" s="29"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="3" t="s">
+      <c r="B121" s="29"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="3" t="s">
+      <c r="B122" s="29"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="3" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="3" t="s">
+      <c r="B124" s="29"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="E124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="3" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="E125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="3" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="3" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="3" t="s">
+      <c r="B128" s="29"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="E128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="3" t="s">
+      <c r="B129" s="30"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="3" t="s">
+      <c r="E129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B130" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="3" t="s">
+      <c r="E130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="B131" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="E132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="3" t="s">
+      <c r="B133" s="29"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="E133" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="3" t="s">
+      <c r="B134" s="29"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="3" t="s">
+      <c r="B135" s="29"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="E135" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="3" t="s">
+      <c r="B136" s="29"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="E136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="3" t="s">
+      <c r="B137" s="29"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="E137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="3" t="s">
+      <c r="B138" s="29"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="3" t="s">
+      <c r="E138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="3" t="s">
+      <c r="B139" s="29"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="3" t="s">
+      <c r="E139" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="3" t="s">
+      <c r="B140" s="29"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="3" t="s">
+      <c r="E140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="3" t="s">
+      <c r="B141" s="29"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F141" s="3" t="s">
+      <c r="E141" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="3" t="s">
+      <c r="B142" s="29"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="3" t="s">
+      <c r="E142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="3" t="s">
+      <c r="B143" s="29"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F143" s="3" t="s">
+      <c r="E143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="3" t="s">
+      <c r="B144" s="29"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="3" t="s">
+      <c r="E144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="3" t="s">
+      <c r="B145" s="29"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="3" t="s">
+      <c r="E145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="3" t="s">
+      <c r="B146" s="30"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F146" s="3" t="s">
+      <c r="E146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="E147" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="3" t="s">
+      <c r="B148" s="29"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="E148" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="3" t="s">
+      <c r="B149" s="29"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" s="3" t="s">
+      <c r="E149" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="3" t="s">
+      <c r="B150" s="29"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="3" t="s">
+      <c r="E150" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="3" t="s">
+      <c r="B151" s="29"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" s="3" t="s">
+      <c r="E151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="3" t="s">
+      <c r="B152" s="29"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="E152" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="3" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="E153" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="3" t="s">
+      <c r="B154" s="29"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="E154" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="3" t="s">
+      <c r="B155" s="29"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="3" t="s">
+      <c r="B156" s="29"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="3" t="s">
+      <c r="B157" s="29"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="E157" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="3" t="s">
+      <c r="B158" s="29"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="3" t="s">
+      <c r="B159" s="30"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="3" t="s">
+      <c r="E159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B160" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="3" t="s">
+      <c r="E160" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B161" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F161" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="E162" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="3" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="3" t="s">
+      <c r="E163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="3" t="s">
+      <c r="B164" s="29"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="E164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="3" t="s">
+      <c r="B165" s="29"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="E165" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="3" t="s">
+      <c r="B166" s="29"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" s="3" t="s">
+      <c r="E166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="3" t="s">
+      <c r="B167" s="29"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E167" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="E167" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="3" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F168" s="3" t="s">
+      <c r="E168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="3" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" s="3" t="s">
+      <c r="E169" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="3" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170" s="3" t="s">
+      <c r="E170" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="3" t="s">
+      <c r="B171" s="29"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F171" s="3" t="s">
+      <c r="E171" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="3" t="s">
+      <c r="B172" s="29"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="3" t="s">
+      <c r="E172" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="3" t="s">
+      <c r="B173" s="29"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F173" s="3" t="s">
+      <c r="E173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="3" t="s">
+      <c r="B174" s="29"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="E174" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="3" t="s">
+      <c r="B175" s="30"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="E175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="33"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E177" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="33"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="33"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="33"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181" s="33"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B182" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183" s="33"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="33"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185" s="33"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B186" s="33"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187" s="33"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188" s="33"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B189" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="33"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="33"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="33"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B195" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="33"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="33"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="33"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="33"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="33"/>
+      <c r="C202" s="27"/>
+      <c r="D202" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="33"/>
+      <c r="C203" s="27"/>
+      <c r="D203" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="33"/>
+      <c r="C205" s="27"/>
+      <c r="D205" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="33"/>
+      <c r="C207" s="27"/>
+      <c r="D207" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="33"/>
+      <c r="C208" s="27"/>
+      <c r="D208" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B209" s="33"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F209" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B210" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211" s="33"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B212" s="33"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B213" s="33"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B214" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B215" s="33"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B216" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B217" s="33"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B218" s="33"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B219" s="33"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F219" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B220" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B221" s="33"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B222" s="33"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B223" s="33"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B224" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="33"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" s="17" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B132:B146"/>
-    <mergeCell ref="C132:C146"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="C147:C159"/>
-    <mergeCell ref="B162:B175"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C89:C100"/>
-    <mergeCell ref="B103:B115"/>
-    <mergeCell ref="C103:C115"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="C67:C76"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
+  <mergeCells count="55">
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C182:C188"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B196:B199"/>
     <mergeCell ref="B45:B54"/>
     <mergeCell ref="C45:C54"/>
     <mergeCell ref="C4:C11"/>
@@ -4040,6 +5760,24 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C23:C32"/>
     <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="C67:C76"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C89:C100"/>
+    <mergeCell ref="B103:B115"/>
+    <mergeCell ref="C103:C115"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="C116:C129"/>
+    <mergeCell ref="B132:B146"/>
+    <mergeCell ref="C132:C146"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="C147:C159"/>
+    <mergeCell ref="B162:B175"/>
+    <mergeCell ref="C162:C175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4062,10 +5800,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE1C14E-0A40-46F2-ACBA-F474BE9142F7}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4075,11 +5813,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -4090,7 +5828,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4098,7 +5836,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4106,7 +5844,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4114,7 +5852,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4122,7 +5860,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4130,7 +5868,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4138,11 +5876,67 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Script/Danny Script/Diccionario de datos.xlsx
+++ b/Script/Danny Script/Diccionario de datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\2018 - I SEMESTRE\Bases de Datos II\Proyecto II\Esteban Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Script\Danny Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8CE6D103-9FF0-4503-A368-F7977F3AE0A4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F50218-2D6D-48A2-BD38-44A5748E237B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="11124" windowHeight="5676" firstSheet="1" activeTab="2" xr2:uid="{AEA42C2C-DE09-4291-BB71-D10C44CDD0F2}"/>
   </bookViews>
@@ -1007,6 +1007,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,31 +1032,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,12 +1047,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,20 +1395,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
@@ -1655,16 +1655,16 @@
       <c r="B19" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1672,16 +1672,16 @@
       <c r="B20" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1689,16 +1689,16 @@
       <c r="B21" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1706,16 +1706,16 @@
       <c r="B22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1723,16 +1723,16 @@
       <c r="B23" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1740,16 +1740,16 @@
       <c r="B24" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1757,16 +1757,16 @@
       <c r="B25" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440290B-5980-4681-9BBC-4884532545B2}">
   <dimension ref="B2:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -1803,18 +1803,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1843,7 +1843,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1937,7 +1937,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1969,7 +1969,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1991,7 +1991,7 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2013,7 +2013,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2037,7 +2037,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2059,7 +2059,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2091,7 +2091,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="5" t="s">
         <v>45</v>
       </c>
@@ -2101,187 +2101,187 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="3"/>
@@ -2290,10 +2290,10 @@
       <c r="B48" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="3"/>
@@ -2302,52 +2302,52 @@
       <c r="B49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
-      <c r="C51" s="17" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E53" s="3"/>
@@ -2357,29 +2357,29 @@
         <v>189</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="12" t="s">
         <v>185</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="3"/>
@@ -2388,52 +2388,52 @@
       <c r="B57" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="21"/>
+      <c r="C60" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="3"/>
@@ -2443,29 +2443,29 @@
         <v>197</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="3"/>
@@ -2474,52 +2474,52 @@
       <c r="B65" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="17" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="16"/>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="12" t="s">
         <v>201</v>
       </c>
       <c r="E69" s="3"/>
@@ -2529,75 +2529,84 @@
         <v>204</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="12" t="s">
         <v>202</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="15"/>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="15"/>
-      <c r="C73" s="17" t="s">
+      <c r="B73" s="21"/>
+      <c r="C73" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="15"/>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="15"/>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="12" t="s">
         <v>197</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="16"/>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="12" t="s">
         <v>189</v>
       </c>
       <c r="E76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B66:B69"/>
@@ -2607,15 +2616,6 @@
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2626,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D06344-8D27-406A-AAC5-DCD58DB16352}">
   <dimension ref="B2:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C224" sqref="C224:C225"/>
     </sheetView>
   </sheetViews>
@@ -2640,13 +2640,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -2666,10 +2666,10 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2683,8 +2683,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -2696,8 +2696,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
@@ -2709,8 +2709,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
@@ -2722,8 +2722,8 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
@@ -2735,8 +2735,8 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2748,8 +2748,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2761,8 +2761,8 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
@@ -2774,10 +2774,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2791,10 +2791,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2808,10 +2808,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="28" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2825,8 +2825,8 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
@@ -2838,8 +2838,8 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
@@ -2851,8 +2851,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2864,8 +2864,8 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
@@ -2877,8 +2877,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="5" t="s">
         <v>69</v>
       </c>
@@ -2890,8 +2890,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2903,8 +2903,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2916,8 +2916,8 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
@@ -2929,10 +2929,10 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2946,8 +2946,8 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
@@ -2959,8 +2959,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2972,8 +2972,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
@@ -2985,8 +2985,8 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5" t="s">
         <v>69</v>
       </c>
@@ -2998,8 +2998,8 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="29"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5" t="s">
         <v>70</v>
       </c>
@@ -3011,8 +3011,8 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
@@ -3024,8 +3024,8 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="5" t="s">
         <v>22</v>
       </c>
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="5" t="s">
         <v>23</v>
       </c>
@@ -3050,8 +3050,8 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="5" t="s">
         <v>24</v>
       </c>
@@ -3063,10 +3063,10 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -3080,10 +3080,10 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3097,10 +3097,10 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="28" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3114,8 +3114,8 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="5" t="s">
         <v>66</v>
       </c>
@@ -3127,8 +3127,8 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="5" t="s">
         <v>67</v>
       </c>
@@ -3140,8 +3140,8 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="5" t="s">
         <v>68</v>
       </c>
@@ -3153,8 +3153,8 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="5" t="s">
         <v>69</v>
       </c>
@@ -3166,8 +3166,8 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="5" t="s">
         <v>70</v>
       </c>
@@ -3179,8 +3179,8 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="5" t="s">
         <v>72</v>
       </c>
@@ -3192,8 +3192,8 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
@@ -3205,8 +3205,8 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="29"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="5" t="s">
         <v>23</v>
       </c>
@@ -3218,8 +3218,8 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
@@ -3231,10 +3231,10 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3248,8 +3248,8 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="29"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="5" t="s">
         <v>66</v>
       </c>
@@ -3261,8 +3261,8 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="5" t="s">
         <v>67</v>
       </c>
@@ -3274,8 +3274,8 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="5" t="s">
         <v>68</v>
       </c>
@@ -3287,8 +3287,8 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="5" t="s">
         <v>69</v>
       </c>
@@ -3300,8 +3300,8 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="5" t="s">
         <v>70</v>
       </c>
@@ -3313,8 +3313,8 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="5" t="s">
         <v>72</v>
       </c>
@@ -3326,8 +3326,8 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="29"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="5" t="s">
         <v>71</v>
       </c>
@@ -3339,8 +3339,8 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="5" t="s">
         <v>89</v>
       </c>
@@ -3352,8 +3352,8 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="24"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="5" t="s">
         <v>90</v>
       </c>
@@ -3365,10 +3365,10 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3382,10 +3382,10 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="15" t="s">
         <v>145</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="5" t="s">
         <v>66</v>
       </c>
@@ -3429,8 +3429,8 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="5" t="s">
         <v>67</v>
       </c>
@@ -3442,8 +3442,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="5" t="s">
         <v>68</v>
       </c>
@@ -3455,8 +3455,8 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="5" t="s">
         <v>69</v>
       </c>
@@ -3468,8 +3468,8 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="5" t="s">
         <v>70</v>
       </c>
@@ -3481,8 +3481,8 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="5" t="s">
         <v>72</v>
       </c>
@@ -3494,8 +3494,8 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="5" t="s">
         <v>71</v>
       </c>
@@ -3507,8 +3507,8 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="22"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="5" t="s">
         <v>89</v>
       </c>
@@ -3520,8 +3520,8 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="24"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="5" t="s">
         <v>90</v>
       </c>
@@ -3533,10 +3533,10 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3550,8 +3550,8 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="5" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3563,8 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="5" t="s">
         <v>67</v>
       </c>
@@ -3576,8 +3576,8 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="29"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="29"/>
       <c r="D70" s="5" t="s">
         <v>68</v>
       </c>
@@ -3589,8 +3589,8 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="5" t="s">
         <v>69</v>
       </c>
@@ -3602,8 +3602,8 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="22"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="5" t="s">
         <v>70</v>
       </c>
@@ -3615,8 +3615,8 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="29"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="5" t="s">
         <v>72</v>
       </c>
@@ -3628,8 +3628,8 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="22"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="5" t="s">
         <v>71</v>
       </c>
@@ -3641,8 +3641,8 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="22"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="5" t="s">
         <v>89</v>
       </c>
@@ -3654,8 +3654,8 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
-      <c r="C76" s="24"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="5" t="s">
         <v>90</v>
       </c>
@@ -3667,10 +3667,10 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -3684,10 +3684,10 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -3699,10 +3699,10 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -3716,8 +3716,8 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="5" t="s">
         <v>66</v>
       </c>
@@ -3729,8 +3729,8 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="5" t="s">
         <v>67</v>
       </c>
@@ -3742,8 +3742,8 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="5" t="s">
         <v>68</v>
       </c>
@@ -3755,8 +3755,8 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-      <c r="C83" s="22"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="5" t="s">
         <v>69</v>
       </c>
@@ -3768,8 +3768,8 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="22"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="5" t="s">
         <v>70</v>
       </c>
@@ -3781,8 +3781,8 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="5" t="s">
         <v>72</v>
       </c>
@@ -3794,8 +3794,8 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="22"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="5" t="s">
         <v>71</v>
       </c>
@@ -3807,8 +3807,8 @@
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="22"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="5" t="s">
         <v>89</v>
       </c>
@@ -3820,8 +3820,8 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
-      <c r="C88" s="24"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="5" t="s">
         <v>90</v>
       </c>
@@ -3833,10 +3833,10 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="28" t="s">
         <v>141</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -3850,8 +3850,8 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="22"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="5" t="s">
         <v>66</v>
       </c>
@@ -3863,8 +3863,8 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-      <c r="C91" s="22"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="5" t="s">
         <v>67</v>
       </c>
@@ -3876,8 +3876,8 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="5" t="s">
         <v>68</v>
       </c>
@@ -3889,8 +3889,8 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="5" t="s">
         <v>69</v>
       </c>
@@ -3902,8 +3902,8 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
-      <c r="C94" s="22"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="5" t="s">
         <v>70</v>
       </c>
@@ -3915,8 +3915,8 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="29"/>
-      <c r="C95" s="22"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="29"/>
       <c r="D95" s="5" t="s">
         <v>72</v>
       </c>
@@ -3928,8 +3928,8 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="29"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="5" t="s">
         <v>101</v>
       </c>
@@ -3941,8 +3941,8 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="29"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="5" t="s">
         <v>23</v>
       </c>
@@ -3954,8 +3954,8 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="5" t="s">
         <v>24</v>
       </c>
@@ -3967,8 +3967,8 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="5" t="s">
         <v>34</v>
       </c>
@@ -3980,8 +3980,8 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="30"/>
-      <c r="C100" s="24"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="5" t="s">
         <v>35</v>
       </c>
@@ -3993,10 +3993,10 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="15" t="s">
         <v>140</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -4010,10 +4010,10 @@
       </c>
     </row>
     <row r="102" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -4027,10 +4027,10 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -4044,8 +4044,8 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="29"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="29"/>
       <c r="D104" s="5" t="s">
         <v>66</v>
       </c>
@@ -4057,8 +4057,8 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="29"/>
-      <c r="C105" s="22"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="29"/>
       <c r="D105" s="5" t="s">
         <v>67</v>
       </c>
@@ -4070,8 +4070,8 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="29"/>
-      <c r="C106" s="22"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="5" t="s">
         <v>68</v>
       </c>
@@ -4083,8 +4083,8 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="29"/>
-      <c r="C107" s="22"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="29"/>
       <c r="D107" s="5" t="s">
         <v>69</v>
       </c>
@@ -4096,8 +4096,8 @@
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="29"/>
-      <c r="C108" s="22"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="29"/>
       <c r="D108" s="5" t="s">
         <v>70</v>
       </c>
@@ -4109,8 +4109,8 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="29"/>
-      <c r="C109" s="22"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="29"/>
       <c r="D109" s="5" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4122,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="29"/>
-      <c r="C110" s="22"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="29"/>
       <c r="D110" s="5" t="s">
         <v>101</v>
       </c>
@@ -4135,8 +4135,8 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="29"/>
-      <c r="C111" s="22"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="29"/>
       <c r="D111" s="5" t="s">
         <v>23</v>
       </c>
@@ -4148,8 +4148,8 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="29"/>
-      <c r="C112" s="22"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="29"/>
       <c r="D112" s="5" t="s">
         <v>24</v>
       </c>
@@ -4161,8 +4161,8 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="22"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="29"/>
       <c r="D113" s="5" t="s">
         <v>34</v>
       </c>
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="29"/>
-      <c r="C114" s="22"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="29"/>
       <c r="D114" s="5" t="s">
         <v>35</v>
       </c>
@@ -4187,8 +4187,8 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="30"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="30"/>
       <c r="D115" s="5" t="s">
         <v>75</v>
       </c>
@@ -4200,10 +4200,10 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="28" t="s">
         <v>137</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -4217,8 +4217,8 @@
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="29"/>
-      <c r="C117" s="22"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="29"/>
       <c r="D117" s="5" t="s">
         <v>66</v>
       </c>
@@ -4230,8 +4230,8 @@
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="29"/>
-      <c r="C118" s="22"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="29"/>
       <c r="D118" s="5" t="s">
         <v>67</v>
       </c>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="29"/>
-      <c r="C119" s="22"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="29"/>
       <c r="D119" s="5" t="s">
         <v>68</v>
       </c>
@@ -4256,8 +4256,8 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="29"/>
-      <c r="C120" s="22"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="29"/>
       <c r="D120" s="5" t="s">
         <v>69</v>
       </c>
@@ -4269,8 +4269,8 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="29"/>
-      <c r="C121" s="22"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="29"/>
       <c r="D121" s="5" t="s">
         <v>70</v>
       </c>
@@ -4282,8 +4282,8 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="29"/>
-      <c r="C122" s="22"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="29"/>
       <c r="D122" s="5" t="s">
         <v>72</v>
       </c>
@@ -4295,8 +4295,8 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="29"/>
-      <c r="C123" s="22"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="29"/>
       <c r="D123" s="5" t="s">
         <v>101</v>
       </c>
@@ -4308,8 +4308,8 @@
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="29"/>
-      <c r="C124" s="22"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="29"/>
       <c r="D124" s="5" t="s">
         <v>23</v>
       </c>
@@ -4321,8 +4321,8 @@
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="29"/>
-      <c r="C125" s="22"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="29"/>
       <c r="D125" s="5" t="s">
         <v>24</v>
       </c>
@@ -4334,8 +4334,8 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="29"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="29"/>
       <c r="D126" s="5" t="s">
         <v>107</v>
       </c>
@@ -4347,8 +4347,8 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="29"/>
-      <c r="C127" s="22"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="29"/>
       <c r="D127" s="5" t="s">
         <v>108</v>
       </c>
@@ -4360,8 +4360,8 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="29"/>
-      <c r="C128" s="22"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="29"/>
       <c r="D128" s="5" t="s">
         <v>89</v>
       </c>
@@ -4373,8 +4373,8 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="30"/>
-      <c r="C129" s="24"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="5" t="s">
         <v>109</v>
       </c>
@@ -4386,10 +4386,10 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -4403,10 +4403,10 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="15" t="s">
         <v>135</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -4420,10 +4420,10 @@
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="5" t="s">
@@ -4437,8 +4437,8 @@
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="29"/>
-      <c r="C133" s="22"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="29"/>
       <c r="D133" s="5" t="s">
         <v>66</v>
       </c>
@@ -4450,8 +4450,8 @@
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" s="29"/>
-      <c r="C134" s="22"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="5" t="s">
         <v>67</v>
       </c>
@@ -4463,8 +4463,8 @@
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="29"/>
-      <c r="C135" s="22"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="29"/>
       <c r="D135" s="5" t="s">
         <v>68</v>
       </c>
@@ -4476,8 +4476,8 @@
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="29"/>
-      <c r="C136" s="22"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="5" t="s">
         <v>69</v>
       </c>
@@ -4489,8 +4489,8 @@
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="29"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="29"/>
       <c r="D137" s="5" t="s">
         <v>70</v>
       </c>
@@ -4502,8 +4502,8 @@
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="29"/>
-      <c r="C138" s="22"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="5" t="s">
         <v>72</v>
       </c>
@@ -4515,8 +4515,8 @@
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="29"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="29"/>
       <c r="D139" s="5" t="s">
         <v>101</v>
       </c>
@@ -4528,8 +4528,8 @@
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="29"/>
-      <c r="C140" s="22"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="5" t="s">
         <v>23</v>
       </c>
@@ -4541,8 +4541,8 @@
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="29"/>
-      <c r="C141" s="22"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="5" t="s">
         <v>24</v>
       </c>
@@ -4554,8 +4554,8 @@
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="29"/>
-      <c r="C142" s="22"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="29"/>
       <c r="D142" s="5" t="s">
         <v>107</v>
       </c>
@@ -4567,8 +4567,8 @@
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="29"/>
-      <c r="C143" s="22"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="5" t="s">
         <v>108</v>
       </c>
@@ -4580,8 +4580,8 @@
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="29"/>
-      <c r="C144" s="22"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="5" t="s">
         <v>89</v>
       </c>
@@ -4593,8 +4593,8 @@
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="29"/>
-      <c r="C145" s="22"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="29"/>
       <c r="D145" s="5" t="s">
         <v>109</v>
       </c>
@@ -4606,8 +4606,8 @@
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="30"/>
-      <c r="C146" s="24"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="30"/>
       <c r="D146" s="5" t="s">
         <v>114</v>
       </c>
@@ -4619,10 +4619,10 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="28" t="s">
+      <c r="B147" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="28" t="s">
         <v>132</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -4636,8 +4636,8 @@
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="29"/>
-      <c r="C148" s="22"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="29"/>
       <c r="D148" s="5" t="s">
         <v>66</v>
       </c>
@@ -4649,8 +4649,8 @@
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="29"/>
-      <c r="C149" s="22"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="29"/>
       <c r="D149" s="5" t="s">
         <v>67</v>
       </c>
@@ -4662,8 +4662,8 @@
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="29"/>
-      <c r="C150" s="22"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="29"/>
       <c r="D150" s="5" t="s">
         <v>68</v>
       </c>
@@ -4675,8 +4675,8 @@
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="29"/>
-      <c r="C151" s="22"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="29"/>
       <c r="D151" s="5" t="s">
         <v>69</v>
       </c>
@@ -4688,8 +4688,8 @@
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="29"/>
-      <c r="C152" s="22"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="29"/>
       <c r="D152" s="5" t="s">
         <v>70</v>
       </c>
@@ -4701,8 +4701,8 @@
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="29"/>
-      <c r="C153" s="22"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="29"/>
       <c r="D153" s="5" t="s">
         <v>72</v>
       </c>
@@ -4714,8 +4714,8 @@
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="29"/>
-      <c r="C154" s="22"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="29"/>
       <c r="D154" s="5" t="s">
         <v>101</v>
       </c>
@@ -4727,8 +4727,8 @@
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="29"/>
-      <c r="C155" s="22"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="29"/>
       <c r="D155" s="5" t="s">
         <v>23</v>
       </c>
@@ -4740,8 +4740,8 @@
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="29"/>
-      <c r="C156" s="22"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="29"/>
       <c r="D156" s="5" t="s">
         <v>24</v>
       </c>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="29"/>
-      <c r="C157" s="22"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="29"/>
       <c r="D157" s="5" t="s">
         <v>116</v>
       </c>
@@ -4766,8 +4766,8 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="29"/>
-      <c r="C158" s="22"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="29"/>
       <c r="D158" s="5" t="s">
         <v>117</v>
       </c>
@@ -4779,8 +4779,8 @@
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="30"/>
-      <c r="C159" s="24"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="30"/>
       <c r="D159" s="5" t="s">
         <v>118</v>
       </c>
@@ -4792,10 +4792,10 @@
       </c>
     </row>
     <row r="160" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="15" t="s">
         <v>133</v>
       </c>
       <c r="D160" s="5" t="s">
@@ -4809,10 +4809,10 @@
       </c>
     </row>
     <row r="161" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -4826,10 +4826,10 @@
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -4843,8 +4843,8 @@
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="29"/>
-      <c r="C163" s="22"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="29"/>
       <c r="D163" s="5" t="s">
         <v>66</v>
       </c>
@@ -4856,8 +4856,8 @@
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="29"/>
-      <c r="C164" s="22"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="29"/>
       <c r="D164" s="5" t="s">
         <v>67</v>
       </c>
@@ -4869,8 +4869,8 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="29"/>
-      <c r="C165" s="22"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="29"/>
       <c r="D165" s="5" t="s">
         <v>68</v>
       </c>
@@ -4882,8 +4882,8 @@
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="29"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="29"/>
       <c r="D166" s="5" t="s">
         <v>69</v>
       </c>
@@ -4895,8 +4895,8 @@
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="29"/>
-      <c r="C167" s="22"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="29"/>
       <c r="D167" s="5" t="s">
         <v>70</v>
       </c>
@@ -4908,8 +4908,8 @@
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="29"/>
-      <c r="C168" s="22"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="29"/>
       <c r="D168" s="5" t="s">
         <v>72</v>
       </c>
@@ -4921,8 +4921,8 @@
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="29"/>
-      <c r="C169" s="22"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="29"/>
       <c r="D169" s="5" t="s">
         <v>101</v>
       </c>
@@ -4934,8 +4934,8 @@
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="29"/>
-      <c r="C170" s="22"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="29"/>
       <c r="D170" s="5" t="s">
         <v>23</v>
       </c>
@@ -4947,8 +4947,8 @@
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="29"/>
-      <c r="C171" s="22"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="29"/>
       <c r="D171" s="5" t="s">
         <v>24</v>
       </c>
@@ -4960,8 +4960,8 @@
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="29"/>
-      <c r="C172" s="22"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="29"/>
       <c r="D172" s="5" t="s">
         <v>116</v>
       </c>
@@ -4973,8 +4973,8 @@
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="29"/>
-      <c r="C173" s="22"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="29"/>
       <c r="D173" s="5" t="s">
         <v>117</v>
       </c>
@@ -4986,8 +4986,8 @@
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="29"/>
-      <c r="C174" s="22"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="29"/>
       <c r="D174" s="5" t="s">
         <v>118</v>
       </c>
@@ -4999,8 +4999,8 @@
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="30"/>
-      <c r="C175" s="24"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="30"/>
       <c r="D175" s="5" t="s">
         <v>75</v>
       </c>
@@ -5012,743 +5012,735 @@
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="33" t="s">
+      <c r="B176" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="D176" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E176" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="17" t="s">
+      <c r="E176" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B177" s="33"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="17" t="s">
+      <c r="B177" s="24"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E177" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F177" s="17" t="s">
+      <c r="E177" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B178" s="33"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="17" t="s">
+      <c r="B178" s="24"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E178" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="17" t="s">
+      <c r="E178" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B179" s="33"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="17" t="s">
+      <c r="B179" s="24"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E179" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" s="17" t="s">
+      <c r="E179" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B180" s="33"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="17" t="s">
+      <c r="B180" s="24"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E180" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180" s="17" t="s">
+      <c r="E180" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B181" s="33"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="17" t="s">
+      <c r="B181" s="24"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E181" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F181" s="17" t="s">
+      <c r="E181" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B182" s="33" t="s">
+      <c r="B182" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D182" s="17" t="s">
+      <c r="D182" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E182" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" s="17" t="s">
+      <c r="E182" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B183" s="33"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="17" t="s">
+      <c r="B183" s="24"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E183" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F183" s="17" t="s">
+      <c r="E183" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B184" s="33"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="17" t="s">
+      <c r="B184" s="24"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E184" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" s="17" t="s">
+      <c r="E184" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B185" s="33"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="17" t="s">
+      <c r="B185" s="24"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E185" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="17" t="s">
+      <c r="E185" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B186" s="33"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="17" t="s">
+      <c r="B186" s="24"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E186" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="17" t="s">
+      <c r="E186" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="33"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="17" t="s">
+      <c r="B187" s="24"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E187" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F187" s="17" t="s">
+      <c r="E187" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="33"/>
-      <c r="C188" s="27"/>
-      <c r="D188" s="17" t="s">
+      <c r="B188" s="24"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E188" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F188" s="17" t="s">
+      <c r="E188" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C189" s="26" t="s">
+      <c r="C189" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="D189" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E189" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F189" s="17" t="s">
+      <c r="E189" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B190" s="33" t="s">
+      <c r="B190" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D190" s="17" t="s">
+      <c r="D190" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E190" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F190" s="17" t="s">
+      <c r="E190" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B191" s="33"/>
-      <c r="C191" s="27"/>
-      <c r="D191" s="17" t="s">
+      <c r="B191" s="24"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E191" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F191" s="17" t="s">
+      <c r="E191" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="D192" s="17" t="s">
+      <c r="D192" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E192" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F192" s="17" t="s">
+      <c r="E192" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B193" s="33"/>
-      <c r="C193" s="27"/>
-      <c r="D193" s="17" t="s">
+      <c r="B193" s="24"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E193" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" s="17" t="s">
+      <c r="E193" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B194" s="33"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="17" t="s">
+      <c r="B194" s="24"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E194" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F194" s="17" t="s">
+      <c r="E194" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C195" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D195" s="17" t="s">
+      <c r="D195" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F195" s="17" t="s">
+      <c r="F195" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F196" s="17" t="s">
+      <c r="F196" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B197" s="33"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="17" t="s">
+      <c r="B197" s="24"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F197" s="17" t="s">
+      <c r="F197" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B198" s="33"/>
-      <c r="C198" s="27"/>
-      <c r="D198" s="17" t="s">
+      <c r="B198" s="24"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F198" s="17" t="s">
+      <c r="F198" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B199" s="33"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="17" t="s">
+      <c r="B199" s="24"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F199" s="17" t="s">
+      <c r="F199" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F200" s="17" t="s">
+      <c r="F200" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B201" s="33"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="17" t="s">
+      <c r="B201" s="24"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="12" t="s">
         <v>253</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F201" s="17" t="s">
+      <c r="F201" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B202" s="33"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="17" t="s">
+      <c r="B202" s="24"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F202" s="17" t="s">
+      <c r="F202" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B203" s="33"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="17" t="s">
+      <c r="B203" s="24"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F203" s="17" t="s">
+      <c r="F203" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D204" s="17" t="s">
+      <c r="D204" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F204" s="17" t="s">
+      <c r="F204" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B205" s="33"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="17" t="s">
+      <c r="B205" s="24"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F205" s="17" t="s">
+      <c r="F205" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B206" s="33" t="s">
+      <c r="B206" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C206" s="27" t="s">
+      <c r="C206" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D206" s="17" t="s">
+      <c r="D206" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F206" s="17" t="s">
+      <c r="F206" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B207" s="33"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="17" t="s">
+      <c r="B207" s="24"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F207" s="17" t="s">
+      <c r="F207" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B208" s="33"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="17" t="s">
+      <c r="B208" s="24"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F208" s="17" t="s">
+      <c r="F208" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B209" s="33"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="17" t="s">
+      <c r="B209" s="24"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F209" s="17" t="s">
+      <c r="F209" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B210" s="33" t="s">
+      <c r="B210" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D210" s="17" t="s">
+      <c r="D210" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F210" s="17" t="s">
+      <c r="F210" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B211" s="33"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="17" t="s">
+      <c r="B211" s="24"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F211" s="17" t="s">
+      <c r="F211" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B212" s="33"/>
-      <c r="C212" s="27"/>
-      <c r="D212" s="17" t="s">
+      <c r="B212" s="24"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F212" s="17" t="s">
+      <c r="F212" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B213" s="33"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="17" t="s">
+      <c r="B213" s="24"/>
+      <c r="C213" s="23"/>
+      <c r="D213" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F213" s="17" t="s">
+      <c r="F213" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B214" s="33" t="s">
+      <c r="B214" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C214" s="27" t="s">
+      <c r="C214" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D214" s="17" t="s">
+      <c r="D214" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F214" s="17" t="s">
+      <c r="F214" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B215" s="33"/>
-      <c r="C215" s="27"/>
-      <c r="D215" s="17" t="s">
+      <c r="B215" s="24"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F215" s="17" t="s">
+      <c r="F215" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B216" s="33" t="s">
+      <c r="B216" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C216" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D216" s="17" t="s">
+      <c r="D216" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F216" s="17" t="s">
+      <c r="F216" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B217" s="33"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="17" t="s">
+      <c r="B217" s="24"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F217" s="17" t="s">
+      <c r="F217" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B218" s="33"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="17" t="s">
+      <c r="B218" s="24"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F218" s="17" t="s">
+      <c r="F218" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B219" s="33"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="17" t="s">
+      <c r="B219" s="24"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F219" s="17" t="s">
+      <c r="F219" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B220" s="33" t="s">
+      <c r="B220" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C220" s="27" t="s">
+      <c r="C220" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D220" s="17" t="s">
+      <c r="D220" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F220" s="17" t="s">
+      <c r="F220" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B221" s="33"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="17" t="s">
+      <c r="B221" s="24"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F221" s="17" t="s">
+      <c r="F221" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B222" s="33"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="17" t="s">
+      <c r="B222" s="24"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F222" s="17" t="s">
+      <c r="F222" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B223" s="33"/>
-      <c r="C223" s="27"/>
-      <c r="D223" s="17" t="s">
+      <c r="B223" s="24"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F223" s="17" t="s">
+      <c r="F223" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B224" s="33" t="s">
+      <c r="B224" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C224" s="27" t="s">
+      <c r="C224" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D224" s="17" t="s">
+      <c r="D224" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F224" s="17" t="s">
+      <c r="F224" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B225" s="33"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="17" t="s">
+      <c r="B225" s="24"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="12" t="s">
         <v>233</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F225" s="17" t="s">
+      <c r="F225" s="12" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C182:C188"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B132:B146"/>
+    <mergeCell ref="C132:C146"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="C147:C159"/>
+    <mergeCell ref="B162:B175"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C89:C100"/>
+    <mergeCell ref="B103:B115"/>
+    <mergeCell ref="C103:C115"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="C116:C129"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="B67:B76"/>
+    <mergeCell ref="C67:C76"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
     <mergeCell ref="B45:B54"/>
     <mergeCell ref="C45:C54"/>
     <mergeCell ref="C4:C11"/>
@@ -5760,24 +5752,32 @@
     <mergeCell ref="C35:C44"/>
     <mergeCell ref="C23:C32"/>
     <mergeCell ref="C14:C22"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="B67:B76"/>
-    <mergeCell ref="C67:C76"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C89:C100"/>
-    <mergeCell ref="B103:B115"/>
-    <mergeCell ref="C103:C115"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="C116:C129"/>
-    <mergeCell ref="B132:B146"/>
-    <mergeCell ref="C132:C146"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="C147:C159"/>
-    <mergeCell ref="B162:B175"/>
-    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B196:B199"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C196:C199"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C182:C188"/>
+    <mergeCell ref="C176:C181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5813,10 +5813,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -5884,58 +5884,58 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>229</v>
       </c>
     </row>
